--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prav\Desktop\SampleRoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prav\Documents\UiPath\Qtutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FE837-D48B-40E8-A795-616E186799ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22729D0-D3F6-442D-A2C4-AB79A36C3AD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Static part of logging message. Calling Get Transaction Data.</t>
   </si>
   <si>
-    <t>UIDemo_Queue</t>
-  </si>
-  <si>
     <t>UIDemo Project</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Queuetrial</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -553,10 +553,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.5" customHeight="1">
@@ -575,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -583,18 +583,18 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
